--- a/Finflux Automation Excels/Client/4936-Mifos-EI-FL-SAR-Charges-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4936-Mifos-EI-FL-SAR-Charges-MakeRepayment.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Principal</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Interest(%)</t>
-  </si>
-  <si>
     <t>Fees</t>
   </si>
   <si>
@@ -146,6 +140,9 @@
   </si>
   <si>
     <t>Disbursement</t>
+  </si>
+  <si>
+    <t>Interest</t>
   </si>
 </sst>
 </file>
@@ -155,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +173,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -222,30 +234,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,113 +637,113 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>833.33</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="10">
         <v>9166.67</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>833.33</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="9">
         <v>1200</v>
       </c>
-      <c r="B3" s="8">
-        <v>100</v>
-      </c>
-      <c r="C3" s="8">
-        <v>100</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="B3" s="6">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
         <v>1000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>99.96</v>
       </c>
-      <c r="B4" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="B4" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
         <v>91.63</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>8.33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>18.66</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9.33</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>9.33</v>
-      </c>
-      <c r="F5" s="8">
-        <v>9.33</v>
+      <c r="A5" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +756,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,96 +770,93 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" customWidth="1"/>
-    <col min="15" max="16" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.7109375" customWidth="1"/>
+    <col min="16" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="H1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="L1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="6" t="s">
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="11">
         <v>42005</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="9">
         <v>10000</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
-        <v>0</v>
-      </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>31</v>
       </c>
       <c r="C3" s="11">
@@ -855,556 +865,556 @@
       <c r="D3" s="11">
         <v>42036</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
+      <c r="E3" s="12"/>
+      <c r="F3" s="6">
         <v>833.33</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="10">
         <v>9166.67</v>
       </c>
-      <c r="H3" s="8">
-        <v>100</v>
-      </c>
-      <c r="I3" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J3" s="8">
-        <v>9.33</v>
-      </c>
-      <c r="K3" s="8">
-        <v>950.99</v>
-      </c>
-      <c r="L3" s="8">
-        <v>950.99</v>
-      </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
+      <c r="H3" s="6">
+        <v>100</v>
+      </c>
+      <c r="I3" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L3" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>28</v>
       </c>
       <c r="C4" s="11">
         <v>42064</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>833.33</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <v>8333.34</v>
       </c>
-      <c r="H4" s="8">
-        <v>100</v>
-      </c>
-      <c r="I4" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J4" s="8">
-        <v>9.33</v>
-      </c>
-      <c r="K4" s="8">
-        <v>950.99</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>100</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>850.99</v>
+      <c r="H4" s="6">
+        <v>100</v>
+      </c>
+      <c r="I4" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>841.66</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>31</v>
       </c>
       <c r="C5" s="11">
         <v>42095</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>833.33</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <v>7500.01</v>
       </c>
-      <c r="H5" s="8">
-        <v>100</v>
-      </c>
-      <c r="I5" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>941.66</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8">
-        <v>0</v>
-      </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>941.66</v>
+      <c r="H5" s="6">
+        <v>100</v>
+      </c>
+      <c r="I5" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J5" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="K5" s="6">
+        <v>949.99</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>949.99</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>30</v>
       </c>
       <c r="C6" s="11">
         <v>42125</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
         <v>833.33</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>6666.68</v>
       </c>
-      <c r="H6" s="8">
-        <v>100</v>
-      </c>
-      <c r="I6" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>941.66</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8">
-        <v>0</v>
-      </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
+      <c r="H6" s="6">
+        <v>100</v>
+      </c>
+      <c r="I6" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>941.66</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>31</v>
       </c>
       <c r="C7" s="11">
         <v>42156</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
         <v>833.33</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <v>5833.35</v>
       </c>
-      <c r="H7" s="8">
-        <v>100</v>
-      </c>
-      <c r="I7" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>941.66</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="8">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8">
-        <v>0</v>
-      </c>
-      <c r="P7" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="8">
+      <c r="H7" s="6">
+        <v>100</v>
+      </c>
+      <c r="I7" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>941.66</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>30</v>
       </c>
       <c r="C8" s="11">
         <v>42186</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
         <v>833.33</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <v>5000.0200000000004</v>
       </c>
-      <c r="H8" s="8">
-        <v>100</v>
-      </c>
-      <c r="I8" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>941.66</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="H8" s="6">
+        <v>100</v>
+      </c>
+      <c r="I8" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>941.66</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>31</v>
       </c>
       <c r="C9" s="11">
         <v>42217</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>833.33</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>4166.6899999999996</v>
       </c>
-      <c r="H9" s="8">
-        <v>100</v>
-      </c>
-      <c r="I9" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>941.66</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="H9" s="6">
+        <v>100</v>
+      </c>
+      <c r="I9" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>941.66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>31</v>
       </c>
       <c r="C10" s="11">
         <v>42248</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6">
         <v>833.33</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>3333.36</v>
       </c>
-      <c r="H10" s="8">
-        <v>100</v>
-      </c>
-      <c r="I10" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>941.66</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="8">
+      <c r="H10" s="6">
+        <v>100</v>
+      </c>
+      <c r="I10" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>941.66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>30</v>
       </c>
       <c r="C11" s="11">
         <v>42278</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>833.33</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <v>2500.0300000000002</v>
       </c>
-      <c r="H11" s="8">
-        <v>100</v>
-      </c>
-      <c r="I11" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>941.66</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="8">
+      <c r="H11" s="6">
+        <v>100</v>
+      </c>
+      <c r="I11" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>941.66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>31</v>
       </c>
       <c r="C12" s="11">
         <v>42309</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6">
         <v>833.33</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="10">
         <v>1666.7</v>
       </c>
-      <c r="H12" s="8">
-        <v>100</v>
-      </c>
-      <c r="I12" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>941.66</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
+      <c r="H12" s="6">
+        <v>100</v>
+      </c>
+      <c r="I12" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>941.66</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>30</v>
       </c>
       <c r="C13" s="11">
         <v>42339</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6">
         <v>833.33</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="6">
         <v>833.37</v>
       </c>
-      <c r="H13" s="8">
-        <v>100</v>
-      </c>
-      <c r="I13" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>941.66</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
+      <c r="H13" s="6">
+        <v>100</v>
+      </c>
+      <c r="I13" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>941.66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>31</v>
       </c>
       <c r="C14" s="11">
         <v>42370</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6">
         <v>833.37</v>
       </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>100</v>
-      </c>
-      <c r="I14" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>100</v>
+      </c>
+      <c r="I14" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
         <v>941.7</v>
       </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>941.7</v>
       </c>
     </row>
@@ -1415,151 +1425,160 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>470</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <v>133</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="C2" s="11">
         <v>42050</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="8">
-        <v>100</v>
-      </c>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8">
-        <v>100</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="9">
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6">
+        <v>100</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>100</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
         <v>9166.67</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>132</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>37</v>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>469</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C3" s="11">
         <v>42036</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="8">
-        <v>950.99</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="D3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6">
+        <v>941.66</v>
+      </c>
+      <c r="F3" s="6">
         <v>833.33</v>
       </c>
-      <c r="G3" s="8">
-        <v>100</v>
-      </c>
-      <c r="H3" s="8">
-        <v>8.33</v>
-      </c>
-      <c r="I3" s="8">
-        <v>9.33</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="G3" s="6">
+        <v>100</v>
+      </c>
+      <c r="H3" s="6">
+        <v>8.33</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <v>9166.67</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>127</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>37</v>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>466</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="C4" s="11">
         <v>42005</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="7">
+      <c r="D4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9">
         <v>10000</v>
       </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="9">
         <v>10000</v>
       </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Finflux Automation Excels/Client/4936-Mifos-EI-FL-SAR-Charges-MakeRepayment.xlsx
+++ b/Finflux Automation Excels/Client/4936-Mifos-EI-FL-SAR-Charges-MakeRepayment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
     <sheet name="Repayment schedule" sheetId="4" r:id="rId4"/>
     <sheet name="Transactions" sheetId="5" r:id="rId5"/>
+    <sheet name="Modify Transaction2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -143,6 +144,15 @@
   </si>
   <si>
     <t>Interest</t>
+  </si>
+  <si>
+    <t>OverDueTillDate</t>
+  </si>
+  <si>
+    <t>NavigateToLoan</t>
+  </si>
+  <si>
+    <t>navigate</t>
   </si>
 </sst>
 </file>
@@ -152,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +198,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -234,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -260,6 +275,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1427,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1583,4 +1603,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="14">
+        <v>42095</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>